--- a/hlh-2_fluorescence_tracing/data/GS9062_hlh2_cell_cycle_timing.xlsx
+++ b/hlh-2_fluorescence_tracing/data/GS9062_hlh2_cell_cycle_timing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wolfgang/Documents/GitHub/Attner_Keil_et_al_2019_code/hlh-2_fluorescence_tracing/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A627E08-9F5B-D944-A1D5-4F9E5C7C7B60}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4E324E-81A3-244F-AB38-2DA7248C26BD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{B9642DFD-5717-A546-A57A-9BE13F6E5E2D}"/>
   </bookViews>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="18">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Worm</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="17">
   <si>
     <t>Time Z1.p divides</t>
   </si>
@@ -79,6 +73,9 @@
   </si>
   <si>
     <t>GS9062 - Worms with entire parent cell cycle and fate determined</t>
+  </si>
+  <si>
+    <t>Worm Index</t>
   </si>
 </sst>
 </file>
@@ -436,11 +433,12 @@
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="B4" sqref="B4:B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.1640625" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" customWidth="1"/>
     <col min="5" max="5" width="23.33203125" customWidth="1"/>
@@ -454,7 +452,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -485,48 +483,44 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>43369</v>
-      </c>
+      <c r="A4" s="2"/>
       <c r="B4" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3">
         <v>3.3333333333333333E-2</v>
@@ -547,21 +541,19 @@
         <v>0.19999999999999998</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1">
         <v>32</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>43370</v>
-      </c>
+      <c r="A5" s="2"/>
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -584,21 +576,19 @@
         <v>0.24444444444444446</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>43370</v>
-      </c>
+      <c r="A6" s="2"/>
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -621,23 +611,21 @@
         <v>0.13333333333333333</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1">
         <v>16</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>43370</v>
-      </c>
+      <c r="A7" s="2"/>
       <c r="B7" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" s="3">
         <v>9.9999999999999992E-2</v>
@@ -658,23 +646,21 @@
         <v>0.22222222222222221</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1">
         <v>8</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>43370</v>
-      </c>
+      <c r="A8" s="2"/>
       <c r="B8" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" s="3">
         <v>4.4444444444444446E-2</v>
@@ -695,23 +681,21 @@
         <v>0.19999999999999998</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J8" s="1">
         <v>72</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>43370</v>
-      </c>
+      <c r="A9" s="2"/>
       <c r="B9" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C9" s="3">
         <v>5.5555555555555558E-3</v>
@@ -732,23 +716,21 @@
         <v>0.16111111111111112</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J9" s="1">
         <v>72</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>43377</v>
-      </c>
+      <c r="A10" s="2"/>
       <c r="B10" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C10" s="3">
         <v>3.3333333333333333E-2</v>
@@ -769,23 +751,21 @@
         <v>0.17777777777777778</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J10" s="1">
         <v>8</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>43377</v>
-      </c>
+      <c r="A11" s="2"/>
       <c r="B11" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C11" s="3">
         <v>7.7777777777777779E-2</v>
@@ -806,23 +786,21 @@
         <v>0.18333333333333335</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J11" s="1">
         <v>16</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>43377</v>
-      </c>
+      <c r="A12" s="2"/>
       <c r="B12" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C12" s="3">
         <v>0.15555555555555556</v>
@@ -843,23 +821,21 @@
         <v>0.25555555555555559</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J12" s="1">
         <v>48</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>43377</v>
-      </c>
+      <c r="A13" s="2"/>
       <c r="B13" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C13" s="3">
         <v>0.14444444444444446</v>
@@ -880,23 +856,21 @@
         <v>0.28888888888888892</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J13" s="1">
         <v>40</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>43377</v>
-      </c>
+      <c r="A14" s="2"/>
       <c r="B14" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C14" s="3">
         <v>0.24444444444444446</v>
@@ -917,23 +891,21 @@
         <v>0.39999999999999997</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J14" s="1">
         <v>40</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>43377</v>
-      </c>
+      <c r="A15" s="2"/>
       <c r="B15" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C15" s="3">
         <v>0.15555555555555556</v>
@@ -954,23 +926,21 @@
         <v>0.3</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J15" s="1">
         <v>16</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>43377</v>
-      </c>
+      <c r="A16" s="2"/>
       <c r="B16" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C16" s="3">
         <v>0.15555555555555556</v>
@@ -991,23 +961,21 @@
         <v>0.24444444444444446</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J16" s="1">
         <v>64</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>43377</v>
-      </c>
+      <c r="A17" s="2"/>
       <c r="B17" s="1">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C17" s="3">
         <v>6.6666666666666666E-2</v>
@@ -1028,23 +996,21 @@
         <v>0.31111111111111112</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J17" s="1">
         <v>176</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>43383</v>
-      </c>
+      <c r="A18" s="2"/>
       <c r="B18" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C18" s="3">
         <v>2.7777777777777776E-2</v>
@@ -1065,23 +1031,21 @@
         <v>0.24444444444444446</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J18" s="1">
         <v>104</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>43383</v>
-      </c>
+      <c r="A19" s="2"/>
       <c r="B19" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C19" s="3">
         <v>5.5555555555555552E-2</v>
@@ -1102,23 +1066,21 @@
         <v>0.21666666666666667</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J19" s="1">
         <v>88</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>43383</v>
-      </c>
+      <c r="A20" s="2"/>
       <c r="B20" s="1">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C20" s="3">
         <v>4.4444444444444446E-2</v>
@@ -1139,23 +1101,21 @@
         <v>0.25</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J20" s="1">
         <v>56</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>43390</v>
-      </c>
+      <c r="A21" s="2"/>
       <c r="B21" s="1">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C21" s="3">
         <v>0.18333333333333335</v>
@@ -1176,23 +1136,21 @@
         <v>0.21111111111111111</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J21" s="1">
         <v>128</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>43566</v>
-      </c>
+      <c r="A22" s="2"/>
       <c r="B22" s="1">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C22" s="3">
         <v>0.22222222222222221</v>
@@ -1213,23 +1171,21 @@
         <v>0.37222222222222223</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>43566</v>
-      </c>
+      <c r="A23" s="2"/>
       <c r="B23" s="1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C23" s="3">
         <v>0.1388888888888889</v>
@@ -1250,23 +1206,21 @@
         <v>0.35555555555555557</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J23" s="1">
         <v>48</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>43570</v>
-      </c>
+      <c r="A24" s="2"/>
       <c r="B24" s="1">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C24" s="3">
         <v>5.5555555555555552E-2</v>
@@ -1287,23 +1241,21 @@
         <v>0.22222222222222221</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J24" s="1">
         <v>56</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>43570</v>
-      </c>
+      <c r="A25" s="2"/>
       <c r="B25" s="1">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C25" s="3">
         <v>0.14444444444444446</v>
@@ -1324,23 +1276,21 @@
         <v>0.3</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J25" s="1">
         <v>24</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <v>43606</v>
-      </c>
+      <c r="A26" s="2"/>
       <c r="B26" s="1">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C26" s="3">
         <v>0.3</v>
@@ -1361,23 +1311,21 @@
         <v>0.45555555555555555</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J26" s="1">
         <v>32</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
-        <v>43606</v>
-      </c>
+      <c r="A27" s="2"/>
       <c r="B27" s="1">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C27" s="3">
         <v>1.1111111111111112E-2</v>
@@ -1398,23 +1346,21 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J27" s="1">
         <v>48</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
-        <v>43607</v>
-      </c>
+      <c r="A28" s="2"/>
       <c r="B28" s="1">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C28" s="3">
         <v>0.19999999999999998</v>
@@ -1435,23 +1381,21 @@
         <v>0.31111111111111112</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J28" s="1">
         <v>80</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
-        <v>43607</v>
-      </c>
+      <c r="A29" s="2"/>
       <c r="B29" s="1">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C29" s="3">
         <v>0.3888888888888889</v>
@@ -1472,23 +1416,21 @@
         <v>0.61111111111111105</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J29" s="1">
         <v>96</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
-        <v>43614</v>
-      </c>
+      <c r="A30" s="2"/>
       <c r="B30" s="1">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="C30" s="3">
         <v>0.14444444444444446</v>
@@ -1509,23 +1451,21 @@
         <v>0.25555555555555559</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J30" s="1">
         <v>0</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
-        <v>43614</v>
-      </c>
+      <c r="A31" s="2"/>
       <c r="B31" s="1">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C31" s="3">
         <v>5.5555555555555552E-2</v>
@@ -1546,23 +1486,21 @@
         <v>0.26666666666666666</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J31" s="1">
         <v>112</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
-        <v>43614</v>
-      </c>
+      <c r="A32" s="2"/>
       <c r="B32" s="1">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C32" s="3">
         <v>4.4444444444444446E-2</v>
@@ -1583,23 +1521,21 @@
         <v>0.23333333333333331</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J32" s="1">
         <v>96</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
-        <v>43614</v>
-      </c>
+      <c r="A33" s="2"/>
       <c r="B33" s="1">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C33" s="3">
         <v>2.2222222222222223E-2</v>
@@ -1620,23 +1556,21 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J33" s="1">
         <v>32</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
-        <v>43615</v>
-      </c>
+      <c r="A34" s="2"/>
       <c r="B34" s="1">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C34" s="3">
         <v>8.8888888888888892E-2</v>
@@ -1657,23 +1591,21 @@
         <v>0.19999999999999998</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J34" s="1">
         <v>16</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
-        <v>43615</v>
-      </c>
+      <c r="A35" s="2"/>
       <c r="B35" s="1">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C35" s="3">
         <v>5.5555555555555552E-2</v>
@@ -1694,23 +1626,21 @@
         <v>0.24444444444444446</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J35" s="1">
         <v>16</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
-        <v>43615</v>
-      </c>
+      <c r="A36" s="2"/>
       <c r="B36" s="1">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C36" s="3">
         <v>0.15555555555555556</v>
@@ -1731,23 +1661,21 @@
         <v>0.3666666666666667</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J36" s="1">
         <v>48</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
     <row r="37" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
-        <v>43615</v>
-      </c>
+      <c r="A37" s="2"/>
       <c r="B37" s="1">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C37" s="3">
         <v>0.12222222222222223</v>
@@ -1768,13 +1696,13 @@
         <v>0.25555555555555559</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J37" s="1">
         <v>24</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
